--- a/biology/Botanique/Jardin_Charles-Trenet/Jardin_Charles-Trenet.xlsx
+++ b/biology/Botanique/Jardin_Charles-Trenet/Jardin_Charles-Trenet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Charles-Trenet est un espace vert du 13e arrondissement de Paris, en France.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est accessible par le boulevard Kellermann, par la rue Brillat-Savarin et par la place de Rungis.
 Il est desservi par la ligne 7 à la station Maison Blanche, par la ligne B du RER à la gare de Cité universitaire et par la ligne 3a du tramway d'Île-de-France à la station Poterne des Peupliers.
@@ -544,9 +558,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin est ouvert au printemps 2015 dans le cadre de l'aménagement de la ZAC Gare de Rungis[1]. Son nom rend hommage à l'auteur-compositeur-interprète Charles Trenet (1913-2001).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin est ouvert au printemps 2015 dans le cadre de l'aménagement de la ZAC Gare de Rungis. Son nom rend hommage à l'auteur-compositeur-interprète Charles Trenet (1913-2001).
 Depuis septembre 2015, le jardin est le point de départ de la Petite Ceinture du 13e.
 </t>
         </is>
@@ -576,7 +592,9 @@
           <t>Aménagements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est conçu comme un ensemble naturel écologique dans la ville (un écoquartier), avec un écosystème orienté autour de petits étangs. À ce titre, il présente la rareté d'accueillir un couple de héron cendré facilement visible depuis la rue.
 </t>
